--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -1,21 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">password </t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Stamm</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Prohaska</t>
+  </si>
+  <si>
+    <t>Fritsch</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Edd</t>
+  </si>
+  <si>
+    <t>Liza</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>UserUser123</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>storemanager51</t>
+  </si>
+  <si>
+    <t>storemanager52</t>
+  </si>
+  <si>
+    <t>salesmanager101</t>
+  </si>
+  <si>
+    <t>salesmanager102</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Medhurst</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +136,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +433,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.44140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.5546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t xml:space="preserve">username </t>
   </si>
